--- a/00-paper/risk difference example/meeting_2019-10-17.xlsx
+++ b/00-paper/risk difference example/meeting_2019-10-17.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14130" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14130" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="prior3" sheetId="5" r:id="rId4"/>
-    <sheet name="prior2" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId4"/>
+    <sheet name="prior3" sheetId="5" r:id="rId5"/>
+    <sheet name="prior2" sheetId="4" r:id="rId6"/>
+    <sheet name="conditional1000" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="189">
   <si>
     <t>Var1</t>
   </si>
@@ -520,13 +522,88 @@
   </si>
   <si>
     <t>Case 3: Non-Informative Priors on Risk Difference</t>
+  </si>
+  <si>
+    <t>0.097/0.708/99.85</t>
+  </si>
+  <si>
+    <t>0.637/0.161/112.49</t>
+  </si>
+  <si>
+    <t>0.959/0.026/73.58</t>
+  </si>
+  <si>
+    <t>0.995/0.005/51.52</t>
+  </si>
+  <si>
+    <t>0.001/0.999/30.58</t>
+  </si>
+  <si>
+    <t>0.006/0.971/60.21</t>
+  </si>
+  <si>
+    <t>0.118/0.595/115.54</t>
+  </si>
+  <si>
+    <t>0.555/0.126/129.19</t>
+  </si>
+  <si>
+    <t>0.927/0.027/86.9</t>
+  </si>
+  <si>
+    <t>0/1/25.88</t>
+  </si>
+  <si>
+    <t>0/1/40.86</t>
+  </si>
+  <si>
+    <t>0.01/0.939/75.98</t>
+  </si>
+  <si>
+    <t>0.127/0.561/121.92</t>
+  </si>
+  <si>
+    <t>0.499/0.135/134.71</t>
+  </si>
+  <si>
+    <t>0/1/22.44</t>
+  </si>
+  <si>
+    <t>0/1/31.41</t>
+  </si>
+  <si>
+    <t>0/0.997/47.5</t>
+  </si>
+  <si>
+    <t>0.006/0.923/82.62</t>
+  </si>
+  <si>
+    <t>0.111/0.516/129.87</t>
+  </si>
+  <si>
+    <t>0/1/20.46</t>
+  </si>
+  <si>
+    <t>0/1/26.25</t>
+  </si>
+  <si>
+    <t>0/1/35.27</t>
+  </si>
+  <si>
+    <t>0.001/0.998/52.66</t>
+  </si>
+  <si>
+    <t>0.011/0.913/86.91</t>
+  </si>
+  <si>
+    <t>0/0.998/42.62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,13 +619,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -563,9 +652,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2422,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,11 +2931,23 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
@@ -2935,7 +3042,7 @@
         <v>113.39</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:J26" si="0">C3&amp;"/"&amp;E3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I26" si="0">C3&amp;"/"&amp;E3&amp;"/"&amp;G3</f>
         <v>0.1/0.69/101.6</v>
       </c>
       <c r="J3" t="s">
@@ -3811,7 +3918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
@@ -3939,7 +4046,7 @@
         <v>97.23</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:J26" si="0">C3&amp;"/"&amp;E3&amp;"/"&amp;G3</f>
+        <f t="shared" ref="I3:I26" si="0">C3&amp;"/"&amp;E3&amp;"/"&amp;G3</f>
         <v>0.11/0.77/82.8</v>
       </c>
       <c r="J3" t="s">
@@ -4775,6 +4882,1032 @@
       </c>
       <c r="J26" t="s">
         <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+      <c r="C1">
+        <v>0.1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0.998</v>
+      </c>
+      <c r="G1">
+        <v>0.877</v>
+      </c>
+      <c r="H1">
+        <v>42.62</v>
+      </c>
+      <c r="I1">
+        <v>58.546999999999997</v>
+      </c>
+      <c r="J1" t="str">
+        <f>D1&amp;"/"&amp;F1&amp;"/"&amp;H1</f>
+        <v>0/0.998/42.62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.2</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="G2">
+        <v>0.504</v>
+      </c>
+      <c r="H2">
+        <v>99.85</v>
+      </c>
+      <c r="I2">
+        <v>112.542</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:K25" si="0">D2&amp;"/"&amp;F2&amp;"/"&amp;H2</f>
+        <v>0.097/0.708/99.85</v>
+      </c>
+      <c r="K2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.161</v>
+      </c>
+      <c r="G3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H3">
+        <v>112.49</v>
+      </c>
+      <c r="I3">
+        <v>124.652</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>0.637/0.161/112.49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E4">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F4">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H4">
+        <v>73.58</v>
+      </c>
+      <c r="I4">
+        <v>89.248999999999995</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.959/0.026/73.58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0.995</v>
+      </c>
+      <c r="E5">
+        <v>0.94</v>
+      </c>
+      <c r="F5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G5">
+        <v>1E-3</v>
+      </c>
+      <c r="H5">
+        <v>51.52</v>
+      </c>
+      <c r="I5">
+        <v>67.361000000000004</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>0.995/0.005/51.52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>1E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.999</v>
+      </c>
+      <c r="G6">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="H6">
+        <v>30.58</v>
+      </c>
+      <c r="I6">
+        <v>46.662999999999997</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>0.001/0.999/30.58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>168</v>
+      </c>
+      <c r="M6">
+        <v>0.1</v>
+      </c>
+      <c r="N6">
+        <v>0.2</v>
+      </c>
+      <c r="O6">
+        <v>0.3</v>
+      </c>
+      <c r="P6">
+        <v>0.4</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="D7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <v>1E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="H7">
+        <v>60.21</v>
+      </c>
+      <c r="I7">
+        <v>75.793999999999997</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.006/0.971/60.21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="H8">
+        <v>115.54</v>
+      </c>
+      <c r="I8">
+        <v>126.372</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>0.118/0.595/115.54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8">
+        <v>0.2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>164</v>
+      </c>
+      <c r="N8" t="s">
+        <v>169</v>
+      </c>
+      <c r="O8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.126</v>
+      </c>
+      <c r="G9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H9">
+        <v>129.19</v>
+      </c>
+      <c r="I9">
+        <v>139.32400000000001</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>0.555/0.126/129.19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L9">
+        <v>0.3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" t="s">
+        <v>170</v>
+      </c>
+      <c r="O9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P9" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.78</v>
+      </c>
+      <c r="F10">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.01</v>
+      </c>
+      <c r="H10">
+        <v>86.9</v>
+      </c>
+      <c r="I10">
+        <v>101.542</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>0.927/0.027/86.9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10">
+        <v>0.4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>166</v>
+      </c>
+      <c r="N10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H11">
+        <v>25.88</v>
+      </c>
+      <c r="I11">
+        <v>41.685000000000002</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>0/1/25.88</v>
+      </c>
+      <c r="K11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>167</v>
+      </c>
+      <c r="N11" t="s">
+        <v>172</v>
+      </c>
+      <c r="O11" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H12">
+        <v>40.86</v>
+      </c>
+      <c r="I12">
+        <v>56.847000000000001</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>0/1/40.86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.3</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F13">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="G13">
+        <v>0.77</v>
+      </c>
+      <c r="H13">
+        <v>75.98</v>
+      </c>
+      <c r="I13">
+        <v>90.835999999999999</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.01/0.939/75.98</v>
+      </c>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.127</v>
+      </c>
+      <c r="E14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="G14">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="H14">
+        <v>121.92</v>
+      </c>
+      <c r="I14">
+        <v>132.268</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>0.127/0.561/121.92</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
+        <v>0.499</v>
+      </c>
+      <c r="E15">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G15">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H15">
+        <v>134.71</v>
+      </c>
+      <c r="I15">
+        <v>144.518</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>0.499/0.135/134.71</v>
+      </c>
+      <c r="K15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16">
+        <v>0.4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="H16">
+        <v>22.44</v>
+      </c>
+      <c r="I16">
+        <v>38.581000000000003</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>0/1/22.44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.2</v>
+      </c>
+      <c r="C17">
+        <v>0.4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.96</v>
+      </c>
+      <c r="H17">
+        <v>31.41</v>
+      </c>
+      <c r="I17">
+        <v>47.125</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>0/1/31.41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0.3</v>
+      </c>
+      <c r="C18">
+        <v>0.4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.997</v>
+      </c>
+      <c r="G18">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="H18">
+        <v>47.5</v>
+      </c>
+      <c r="I18">
+        <v>63.506999999999998</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>0/0.997/47.5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.4</v>
+      </c>
+      <c r="C19">
+        <v>0.4</v>
+      </c>
+      <c r="D19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="G19">
+        <v>0.747</v>
+      </c>
+      <c r="H19">
+        <v>82.62</v>
+      </c>
+      <c r="I19">
+        <v>97.067999999999998</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>0.006/0.923/82.62</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
+      </c>
+      <c r="C20">
+        <v>0.4</v>
+      </c>
+      <c r="D20">
+        <v>0.111</v>
+      </c>
+      <c r="E20">
+        <v>0.06</v>
+      </c>
+      <c r="F20">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="H20">
+        <v>129.87</v>
+      </c>
+      <c r="I20">
+        <v>139.405</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>0.111/0.516/129.87</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.997</v>
+      </c>
+      <c r="H21">
+        <v>20.46</v>
+      </c>
+      <c r="I21">
+        <v>36.323</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>0/1/20.46</v>
+      </c>
+      <c r="K21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="H22">
+        <v>26.25</v>
+      </c>
+      <c r="I22">
+        <v>42.156999999999996</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>0/1/26.25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0.3</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="H23">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="I23">
+        <v>51.094999999999999</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>0/1/35.27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.4</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>1E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.998</v>
+      </c>
+      <c r="G24">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="H24">
+        <v>52.66</v>
+      </c>
+      <c r="I24">
+        <v>68.56</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>0.001/0.998/52.66</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F25">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="G25">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="H25">
+        <v>86.91</v>
+      </c>
+      <c r="I25">
+        <v>101.21</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>0.011/0.913/86.91</v>
+      </c>
+      <c r="K25" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
